--- a/科技考勤表.xlsx
+++ b/科技考勤表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -78,18 +78,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -98,7 +98,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,7 +107,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,7 +117,7 @@
       <u/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,7 +127,7 @@
       <u/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -296,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,16 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -357,9 +348,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,12 +364,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +449,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,31 +658,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" thickTop="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -710,16 +710,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="24.75" customHeight="1">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="24.75" customHeight="1">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="E6" s="9"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="24.75" customHeight="1">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="24.75" customHeight="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="24.75" customHeight="1">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="24.75" customHeight="1">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="24.75" customHeight="1">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="24.75" customHeight="1">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="24.75" customHeight="1">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="24.75" customHeight="1">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="24.75" customHeight="1">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="24.75" customHeight="1">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="24.75" customHeight="1">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="24.75" customHeight="1">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="24.75" customHeight="1">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -855,7 +855,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="24.75" customHeight="1">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="24.75" customHeight="1">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="24.75" customHeight="1">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="24.75" customHeight="1">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="24.75" customHeight="1">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="24.75" customHeight="1">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="24.75" customHeight="1">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -918,8 +918,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:5" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A27" s="15"/>
       <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
@@ -929,109 +929,44 @@
       <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" thickTop="1">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="19.5" customHeight="1">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="1.1100000000000001" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1042,7 +977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,7 +991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
